--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="N2">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="O2">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="P2">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="Q2">
-        <v>17829.59863056455</v>
+        <v>17934.18162855948</v>
       </c>
       <c r="R2">
-        <v>17829.59863056455</v>
+        <v>71736.72651423793</v>
       </c>
       <c r="S2">
-        <v>0.2647340509630048</v>
+        <v>0.2583912865236112</v>
       </c>
       <c r="T2">
-        <v>0.2647340509630048</v>
+        <v>0.1761403448913211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="N3">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="O3">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="P3">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="Q3">
-        <v>93.29426394925038</v>
+        <v>104.0050031668933</v>
       </c>
       <c r="R3">
-        <v>93.29426394925038</v>
+        <v>624.0300190013601</v>
       </c>
       <c r="S3">
-        <v>0.001385234123249293</v>
+        <v>0.001498478555073294</v>
       </c>
       <c r="T3">
-        <v>0.001385234123249293</v>
+        <v>0.001532225794379139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H4">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I4">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J4">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="N4">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="O4">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="P4">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="Q4">
-        <v>147.7921063073613</v>
+        <v>157.5808080458267</v>
       </c>
       <c r="R4">
-        <v>147.7921063073613</v>
+        <v>945.48484827496</v>
       </c>
       <c r="S4">
-        <v>0.002194418607720725</v>
+        <v>0.002270385600285788</v>
       </c>
       <c r="T4">
-        <v>0.002194418607720725</v>
+        <v>0.002321516960097368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H5">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I5">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J5">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="N5">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="O5">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="P5">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="Q5">
-        <v>228.4235575637416</v>
+        <v>245.5153106237653</v>
       </c>
       <c r="R5">
-        <v>228.4235575637416</v>
+        <v>1473.091863742592</v>
       </c>
       <c r="S5">
-        <v>0.003391635167017537</v>
+        <v>0.0035373243277683</v>
       </c>
       <c r="T5">
-        <v>0.003391635167017537</v>
+        <v>0.003616988417846482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H6">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I6">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J6">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="N6">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="O6">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="P6">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="Q6">
-        <v>11184.2236845778</v>
+        <v>11542.11449897946</v>
       </c>
       <c r="R6">
-        <v>11184.2236845778</v>
+        <v>69252.68699387675</v>
       </c>
       <c r="S6">
-        <v>0.1660634602182805</v>
+        <v>0.1662959524088237</v>
       </c>
       <c r="T6">
-        <v>0.1660634602182805</v>
+        <v>0.1700411039710758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H7">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I7">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J7">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.12105998547929</v>
+        <v>3.143744</v>
       </c>
       <c r="N7">
-        <v>3.12105998547929</v>
+        <v>6.287488</v>
       </c>
       <c r="O7">
-        <v>0.004254590907709088</v>
+        <v>0.004228213386707702</v>
       </c>
       <c r="P7">
-        <v>0.004254590907709088</v>
+        <v>0.003523270751809444</v>
       </c>
       <c r="Q7">
-        <v>125.9754914704798</v>
+        <v>127.314514563584</v>
       </c>
       <c r="R7">
-        <v>125.9754914704798</v>
+        <v>509.258058254336</v>
       </c>
       <c r="S7">
-        <v>0.001870485302000295</v>
+        <v>0.00183431627339083</v>
       </c>
       <c r="T7">
-        <v>0.001870485302000295</v>
+        <v>0.001250417943196779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H8">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J8">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="N8">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="O8">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="P8">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="Q8">
-        <v>2648.709922987642</v>
+        <v>2862.915222452775</v>
       </c>
       <c r="R8">
-        <v>2648.709922987642</v>
+        <v>17177.49133471665</v>
       </c>
       <c r="S8">
-        <v>0.03932807026493475</v>
+        <v>0.0412481797529906</v>
       </c>
       <c r="T8">
-        <v>0.03932807026493475</v>
+        <v>0.04217713011290187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H9">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J9">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="N9">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="O9">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="P9">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="Q9">
-        <v>13.85950675617555</v>
+        <v>16.60279308778611</v>
       </c>
       <c r="R9">
-        <v>13.85950675617555</v>
+        <v>149.425137790075</v>
       </c>
       <c r="S9">
-        <v>0.0002057860888478851</v>
+        <v>0.000239208967249818</v>
       </c>
       <c r="T9">
-        <v>0.0002057860888478851</v>
+        <v>0.000366894289503901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H10">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J10">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="N10">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="O10">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="P10">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="Q10">
-        <v>21.955537341401</v>
+        <v>25.15534321356389</v>
       </c>
       <c r="R10">
-        <v>21.955537341401</v>
+        <v>226.398088922075</v>
       </c>
       <c r="S10">
-        <v>0.0003259960283959891</v>
+        <v>0.0003624320100307725</v>
       </c>
       <c r="T10">
-        <v>0.0003259960283959891</v>
+        <v>0.0005558915133596948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H11">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J11">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="N11">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="O11">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="P11">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="Q11">
-        <v>33.93389588288583</v>
+        <v>39.19272898467111</v>
       </c>
       <c r="R11">
-        <v>33.93389588288583</v>
+        <v>352.7345608620399</v>
       </c>
       <c r="S11">
-        <v>0.0005038508105635774</v>
+        <v>0.0005646792184034453</v>
       </c>
       <c r="T11">
-        <v>0.0005038508105635774</v>
+        <v>0.000866094540750992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H12">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I12">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J12">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="N12">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="O12">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="P12">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="Q12">
-        <v>1661.493613404836</v>
+        <v>1842.520388318124</v>
       </c>
       <c r="R12">
-        <v>1661.493613404836</v>
+        <v>16582.68349486311</v>
       </c>
       <c r="S12">
-        <v>0.02466987305994648</v>
+        <v>0.02654658146348575</v>
       </c>
       <c r="T12">
-        <v>0.02466987305994648</v>
+        <v>0.04071665563704089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H13">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I13">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J13">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.12105998547929</v>
+        <v>3.143744</v>
       </c>
       <c r="N13">
-        <v>3.12105998547929</v>
+        <v>6.287488</v>
       </c>
       <c r="O13">
-        <v>0.004254590907709088</v>
+        <v>0.004228213386707702</v>
       </c>
       <c r="P13">
-        <v>0.004254590907709088</v>
+        <v>0.003523270751809444</v>
       </c>
       <c r="Q13">
-        <v>18.71452864559182</v>
+        <v>20.32379672138666</v>
       </c>
       <c r="R13">
-        <v>18.71452864559182</v>
+        <v>121.94278032832</v>
       </c>
       <c r="S13">
-        <v>0.0002778735002883149</v>
+        <v>0.0002928202741919741</v>
       </c>
       <c r="T13">
-        <v>0.0002778735002883149</v>
+        <v>0.0002994148803231751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H14">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I14">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J14">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="N14">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="O14">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="P14">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="Q14">
-        <v>335.5869021332117</v>
+        <v>338.457887658195</v>
       </c>
       <c r="R14">
-        <v>335.5869021332117</v>
+        <v>2030.74732594917</v>
       </c>
       <c r="S14">
-        <v>0.004982797531939592</v>
+        <v>0.004876418162666364</v>
       </c>
       <c r="T14">
-        <v>0.004982797531939592</v>
+        <v>0.004986239988366645</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H15">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I15">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J15">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="N15">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="O15">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="P15">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="Q15">
-        <v>1.755975200241272</v>
+        <v>1.962805686192778</v>
       </c>
       <c r="R15">
-        <v>1.755975200241272</v>
+        <v>17.665251175735</v>
       </c>
       <c r="S15">
-        <v>2.607273656477853E-05</v>
+        <v>2.827962250831452E-05</v>
       </c>
       <c r="T15">
-        <v>2.607273656477853E-05</v>
+        <v>4.337476193687499E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H16">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I16">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J16">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="N16">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="O16">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="P16">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="Q16">
-        <v>2.781728077176532</v>
+        <v>2.973900261037222</v>
       </c>
       <c r="R16">
-        <v>2.781728077176532</v>
+        <v>26.765102349335</v>
       </c>
       <c r="S16">
-        <v>4.130312509032379E-05</v>
+        <v>4.28472249449407E-05</v>
       </c>
       <c r="T16">
-        <v>4.130312509032379E-05</v>
+        <v>6.57182811084596E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H17">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I17">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J17">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="N17">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="O17">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="P17">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="Q17">
-        <v>4.299365097633506</v>
+        <v>4.633419865065778</v>
       </c>
       <c r="R17">
-        <v>4.299365097633506</v>
+        <v>41.700778785592</v>
       </c>
       <c r="S17">
-        <v>6.383701408254492E-05</v>
+        <v>6.67571760303717E-05</v>
       </c>
       <c r="T17">
-        <v>6.383701408254492E-05</v>
+        <v>0.0001023909218393597</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H18">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I18">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J18">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="N18">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="O18">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="P18">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="Q18">
-        <v>210.5083270151839</v>
+        <v>217.8253668521253</v>
       </c>
       <c r="R18">
-        <v>210.5083270151839</v>
+        <v>1960.428301669127</v>
       </c>
       <c r="S18">
-        <v>0.00312562965251731</v>
+        <v>0.003138374415076062</v>
       </c>
       <c r="T18">
-        <v>0.00312562965251731</v>
+        <v>0.004813580629751365</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H19">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I19">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J19">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.12105998547929</v>
+        <v>3.143744</v>
       </c>
       <c r="N19">
-        <v>3.12105998547929</v>
+        <v>6.287488</v>
       </c>
       <c r="O19">
-        <v>0.004254590907709088</v>
+        <v>0.004228213386707702</v>
       </c>
       <c r="P19">
-        <v>0.004254590907709088</v>
+        <v>0.003523270751809444</v>
       </c>
       <c r="Q19">
-        <v>2.37109795925611</v>
+        <v>2.402707999722667</v>
       </c>
       <c r="R19">
-        <v>2.37109795925611</v>
+        <v>14.416247998336</v>
       </c>
       <c r="S19">
-        <v>3.52060851727714E-05</v>
+        <v>3.461762705694086E-05</v>
       </c>
       <c r="T19">
-        <v>3.52060851727714E-05</v>
+        <v>3.539725072291578E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H20">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I20">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J20">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="N20">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="O20">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="P20">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="Q20">
-        <v>235.7558356762043</v>
+        <v>237.26875916412</v>
       </c>
       <c r="R20">
-        <v>235.7558356762043</v>
+        <v>1423.61255498472</v>
       </c>
       <c r="S20">
-        <v>0.003500504902546639</v>
+        <v>0.003418510038654174</v>
       </c>
       <c r="T20">
-        <v>0.003500504902546639</v>
+        <v>0.003495498311828528</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H21">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I21">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J21">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="N21">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="O21">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="P21">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="Q21">
-        <v>1.233604166694327</v>
+        <v>1.375983502306667</v>
       </c>
       <c r="R21">
-        <v>1.233604166694327</v>
+        <v>12.38385152076</v>
       </c>
       <c r="S21">
-        <v>1.831656646347571E-05</v>
+        <v>1.982483253264799E-05</v>
       </c>
       <c r="T21">
-        <v>1.831656646347571E-05</v>
+        <v>3.040696145393038E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H22">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I22">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J22">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="N22">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="O22">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="P22">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="Q22">
-        <v>1.954214015177476</v>
+        <v>2.084790015373333</v>
       </c>
       <c r="R22">
-        <v>1.954214015177476</v>
+        <v>18.76311013836</v>
       </c>
       <c r="S22">
-        <v>2.901618838461934E-05</v>
+        <v>3.003714277913019E-05</v>
       </c>
       <c r="T22">
-        <v>2.901618838461934E-05</v>
+        <v>4.607041402075445E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H23">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I23">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J23">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="N23">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="O23">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="P23">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="Q23">
-        <v>3.020381323068869</v>
+        <v>3.248161210474667</v>
       </c>
       <c r="R23">
-        <v>3.020381323068869</v>
+        <v>29.233450894272</v>
       </c>
       <c r="S23">
-        <v>4.48466507674662E-05</v>
+        <v>4.679870938042094E-05</v>
       </c>
       <c r="T23">
-        <v>4.48466507674662E-05</v>
+        <v>7.177899484803765E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H24">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I24">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J24">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="N24">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="O24">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="P24">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="Q24">
-        <v>147.885886596862</v>
+        <v>152.7018763399813</v>
       </c>
       <c r="R24">
-        <v>147.885886596862</v>
+        <v>1374.316887059832</v>
       </c>
       <c r="S24">
-        <v>0.00219581105835601</v>
+        <v>0.002200091149920312</v>
       </c>
       <c r="T24">
-        <v>0.00219581105835601</v>
+        <v>0.003374459112357744</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H25">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I25">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J25">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.12105998547929</v>
+        <v>3.143744</v>
       </c>
       <c r="N25">
-        <v>3.12105998547929</v>
+        <v>6.287488</v>
       </c>
       <c r="O25">
-        <v>0.004254590907709088</v>
+        <v>0.004228213386707702</v>
       </c>
       <c r="P25">
-        <v>0.004254590907709088</v>
+        <v>0.003523270751809444</v>
       </c>
       <c r="Q25">
-        <v>1.665738970446084</v>
+        <v>1.684367735296</v>
       </c>
       <c r="R25">
-        <v>1.665738970446084</v>
+        <v>10.106206411776</v>
       </c>
       <c r="S25">
-        <v>2.473290816189135E-05</v>
+        <v>2.426795686115472E-05</v>
       </c>
       <c r="T25">
-        <v>2.473290816189135E-05</v>
+        <v>2.481449557863222E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H26">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I26">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J26">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="N26">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="O26">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="P26">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="Q26">
-        <v>14610.22377260682</v>
+        <v>14947.91677064169</v>
       </c>
       <c r="R26">
-        <v>14610.22377260682</v>
+        <v>89687.50062385015</v>
       </c>
       <c r="S26">
-        <v>0.2169327422866237</v>
+        <v>0.2153659155020061</v>
       </c>
       <c r="T26">
-        <v>0.2169327422866237</v>
+        <v>0.220216171826437</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H27">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I27">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J27">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="N27">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="O27">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="P27">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="Q27">
-        <v>76.44872446329623</v>
+        <v>86.68687332759667</v>
       </c>
       <c r="R27">
-        <v>76.44872446329623</v>
+        <v>780.1818599483701</v>
       </c>
       <c r="S27">
-        <v>0.001135111391875575</v>
+        <v>0.0012489631915045</v>
       </c>
       <c r="T27">
-        <v>0.001135111391875575</v>
+        <v>0.001915636642020229</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H28">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I28">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J28">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="N28">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="O28">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="P28">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="Q28">
-        <v>121.1062452787852</v>
+        <v>131.3416386710633</v>
       </c>
       <c r="R28">
-        <v>121.1062452787852</v>
+        <v>1182.07474803957</v>
       </c>
       <c r="S28">
-        <v>0.001798186687983616</v>
+        <v>0.001892338088975922</v>
       </c>
       <c r="T28">
-        <v>0.001798186687983616</v>
+        <v>0.002902433159752372</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H29">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I29">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J29">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="N29">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="O29">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="P29">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="Q29">
-        <v>187.1785989181029</v>
+        <v>204.6339501367627</v>
       </c>
       <c r="R29">
-        <v>187.1785989181029</v>
+        <v>1841.705551230864</v>
       </c>
       <c r="S29">
-        <v>0.002779229626640221</v>
+        <v>0.002948315721194897</v>
       </c>
       <c r="T29">
-        <v>0.002779229626640221</v>
+        <v>0.004522072120445587</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H30">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I30">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J30">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="N30">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="O30">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="P30">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="Q30">
-        <v>9164.761032503218</v>
+        <v>9620.20851920076</v>
       </c>
       <c r="R30">
-        <v>9164.761032503218</v>
+        <v>86581.87667280683</v>
       </c>
       <c r="S30">
-        <v>0.1360784594490698</v>
+        <v>0.1386056028306965</v>
       </c>
       <c r="T30">
-        <v>0.1360784594490698</v>
+        <v>0.2125907099407327</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H31">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I31">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J31">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.12105998547929</v>
+        <v>3.143744</v>
       </c>
       <c r="N31">
-        <v>3.12105998547929</v>
+        <v>6.287488</v>
       </c>
       <c r="O31">
-        <v>0.004254590907709088</v>
+        <v>0.004228213386707702</v>
       </c>
       <c r="P31">
-        <v>0.004254590907709088</v>
+        <v>0.003523270751809444</v>
       </c>
       <c r="Q31">
-        <v>103.2289149287234</v>
+        <v>106.115060436352</v>
       </c>
       <c r="R31">
-        <v>103.2289149287234</v>
+        <v>636.690362618112</v>
       </c>
       <c r="S31">
-        <v>0.001532743915993079</v>
+        <v>0.001528879742246825</v>
       </c>
       <c r="T31">
-        <v>0.001532743915993079</v>
+        <v>0.001563311646765429</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H32">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I32">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J32">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="N32">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="O32">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="P32">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="Q32">
-        <v>4895.187379227608</v>
+        <v>5018.66664925644</v>
       </c>
       <c r="R32">
-        <v>4895.187379227608</v>
+        <v>20074.66659702576</v>
       </c>
       <c r="S32">
-        <v>0.07268378901723296</v>
+        <v>0.07230771712880625</v>
       </c>
       <c r="T32">
-        <v>0.07268378901723296</v>
+        <v>0.04929077293869274</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H33">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I33">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J33">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="N33">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="O33">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="P33">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="Q33">
-        <v>25.614312071827</v>
+        <v>29.10455863334667</v>
       </c>
       <c r="R33">
-        <v>25.614312071827</v>
+        <v>174.62735180008</v>
       </c>
       <c r="S33">
-        <v>0.000380321550580561</v>
+        <v>0.0004193313363681138</v>
       </c>
       <c r="T33">
-        <v>0.000380321550580561</v>
+        <v>0.0004287750984486207</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H34">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I34">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J34">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="N34">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="O34">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="P34">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="Q34">
-        <v>40.57691193928756</v>
+        <v>44.09710809681333</v>
       </c>
       <c r="R34">
-        <v>40.57691193928756</v>
+        <v>264.58264858088</v>
       </c>
       <c r="S34">
-        <v>0.0006024863764931862</v>
+        <v>0.000635340308752163</v>
       </c>
       <c r="T34">
-        <v>0.0006024863764931862</v>
+        <v>0.0006496488094427581</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H35">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I35">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J35">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="N35">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="O35">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="P35">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="Q35">
-        <v>62.71459830775189</v>
+        <v>68.70452897316267</v>
       </c>
       <c r="R35">
-        <v>62.71459830775189</v>
+        <v>412.2271738389759</v>
       </c>
       <c r="S35">
-        <v>0.0009311869553848204</v>
+        <v>0.0009898779882492003</v>
       </c>
       <c r="T35">
-        <v>0.0009311869553848204</v>
+        <v>0.001012171032911023</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H36">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I36">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J36">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="N36">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="O36">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="P36">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="Q36">
-        <v>3070.673196947349</v>
+        <v>3229.922964852909</v>
       </c>
       <c r="R36">
-        <v>3070.673196947349</v>
+        <v>19379.53778911745</v>
       </c>
       <c r="S36">
-        <v>0.0455933849917323</v>
+        <v>0.04653593721452323</v>
       </c>
       <c r="T36">
-        <v>0.0455933849917323</v>
+        <v>0.04758397317351861</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H37">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I37">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J37">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.12105998547929</v>
+        <v>3.143744</v>
       </c>
       <c r="N37">
-        <v>3.12105998547929</v>
+        <v>6.287488</v>
       </c>
       <c r="O37">
-        <v>0.004254590907709088</v>
+        <v>0.004228213386707702</v>
       </c>
       <c r="P37">
-        <v>0.004254590907709088</v>
+        <v>0.003523270751809444</v>
       </c>
       <c r="Q37">
-        <v>34.58707336693208</v>
+        <v>35.627447153152</v>
       </c>
       <c r="R37">
-        <v>34.58707336693208</v>
+        <v>142.509788612608</v>
       </c>
       <c r="S37">
-        <v>0.0005135491960927367</v>
+        <v>0.0005133115129599783</v>
       </c>
       <c r="T37">
-        <v>0.0005135491960927367</v>
+        <v>0.0003499145352225122</v>
       </c>
     </row>
   </sheetData>
